--- a/Marksheets/Agnesh Lama.xlsx
+++ b/Marksheets/Agnesh Lama.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="65431" yWindow="65431" windowWidth="19425" windowHeight="10425" tabRatio="601" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="65430" yWindow="65430" windowWidth="19425" windowHeight="10425" tabRatio="601" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Grading Sheet" sheetId="1" state="hidden" r:id="rId1"/>
@@ -326,6 +326,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="27">
     <font>
       <sz val="11"/>
@@ -1204,14 +1210,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2153,11 +2159,11 @@
       </c>
       <c r="E13" s="31" t="str">
         <f>G13</f>
-        <v>Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week </v>
+        <v>Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week</v>
       </c>
       <c r="F13" s="31" t="str">
         <f>G13</f>
-        <v>Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week </v>
+        <v>Excellent report presentation in tabular format with proper chart for enrollment and weekly report for selected week</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>41</v>
@@ -2380,7 +2386,7 @@
       </c>
       <c r="H18" s="44" t="str">
         <f>I18</f>
-        <v>User Manual is good. Contains all varieties of forms. </v>
+        <v>User Manual is good. Contains all varieties of forms.</v>
       </c>
       <c r="I18" s="44" t="s">
         <v>60</v>
@@ -2394,14 +2400,14 @@
       </c>
       <c r="L18" s="44" t="str">
         <f>M18</f>
-        <v>User Manual is below average. Is textual only. </v>
+        <v>User Manual is below average. Is textual only.</v>
       </c>
       <c r="M18" s="44" t="s">
         <v>62</v>
       </c>
       <c r="N18" s="44" t="str">
         <f>M18</f>
-        <v>User Manual is below average. Is textual only. </v>
+        <v>User Manual is below average. Is textual only.</v>
       </c>
       <c r="O18" s="45" t="s">
         <v>28</v>
@@ -30029,8 +30035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A27">
-      <selection activeCell="D54" sqref="D54:E54"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A54">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -30653,7 +30659,7 @@
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
       <c r="A22" s="76" t="str">
         <f>"London Met ID: "</f>
-        <v>London Met ID: </v>
+        <v>London Met ID:</v>
       </c>
       <c r="B22" s="25">
         <f>'Grading Sheet'!C7</f>
@@ -31465,7 +31471,7 @@
       <c r="C49" s="96"/>
       <c r="D49" s="97" t="str">
         <f>IF('Grading Sheet'!D21&gt;'Grading Sheet'!C21*'Grading Sheet'!$G$8,'Grading Sheet'!G21,IF('Grading Sheet'!D21&gt;'Grading Sheet'!C21*'Grading Sheet'!$I$8,'Grading Sheet'!I21,IF('Grading Sheet'!D21&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C21,'Grading Sheet'!K21,IF('Grading Sheet'!D21&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C21,'Grading Sheet'!M21,'Grading Sheet'!O21))))</f>
-        <v>Very poorly written </v>
+        <v>Very poorly written</v>
       </c>
       <c r="E49" s="98"/>
       <c r="F49" s="3"/>
@@ -31528,9 +31534,9 @@
       </c>
       <c r="B51" s="95"/>
       <c r="C51" s="96"/>
-      <c r="D51" s="105" t="str">
+      <c r="D51" s="104" t="str">
         <f>IF('Grading Sheet'!D23&gt;'Grading Sheet'!C23*'Grading Sheet'!$G$8,'Grading Sheet'!G23,IF('Grading Sheet'!D23&gt;'Grading Sheet'!C23*'Grading Sheet'!$I$8,'Grading Sheet'!I23,IF('Grading Sheet'!D23&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C23,'Grading Sheet'!K23,IF('Grading Sheet'!D23&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C23,'Grading Sheet'!M23,'Grading Sheet'!O23))))</f>
-        <v>Code is poorly written and lacks comments </v>
+        <v>Code is poorly written and lacks comments</v>
       </c>
       <c r="E51" s="98"/>
       <c r="F51" s="3"/>
@@ -31562,7 +31568,7 @@
       </c>
       <c r="B52" s="95"/>
       <c r="C52" s="96"/>
-      <c r="D52" s="105" t="str">
+      <c r="D52" s="104" t="str">
         <f>IF('Grading Sheet'!D24&gt;'Grading Sheet'!C24*'Grading Sheet'!$G$8,'Grading Sheet'!G24,IF('Grading Sheet'!D24&gt;'Grading Sheet'!C24*'Grading Sheet'!$I$8,'Grading Sheet'!I24,IF('Grading Sheet'!D24&gt;'Grading Sheet'!$K$8*'Grading Sheet'!C24,'Grading Sheet'!K24,IF('Grading Sheet'!D24&gt;'Grading Sheet'!$M$8*'Grading Sheet'!C24,'Grading Sheet'!M24,'Grading Sheet'!O24))))</f>
         <v>System can't be used and have issues</v>
       </c>
@@ -31618,17 +31624,17 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A54" s="106" t="s">
+      <c r="A54" s="105" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="96"/>
       <c r="C54" s="56" t="str">
-        <f>IF('Grading Sheet'!D25&gt;90,"A+",IF('Grading Sheet'!D25&gt;85,"A",IF('Grading Sheet'!D25&gt;80,"B+",IF('Grading Sheet'!D25&gt;75,"B",IF('Grading Sheet'!D25&gt;70,"C+",IF('Grading Sheet'!D25&gt;65,"C",IF('Grading Sheet'!D25&gt;60,"D+",IF('Grading Sheet'!D25&gt;55,"D",IF('Grading Sheet'!D25&gt;50,"E+",IF('Grading Sheet'!D25&gt;45,"F+","F"))))))))))</f>
-        <v>D</v>
+        <f>IF('Grading Sheet'!D25&gt;95,"A+",IF('Grading Sheet'!D25&gt;85,"A",IF('Grading Sheet'!D25&gt;75,"A-",IF('Grading Sheet'!D25&gt;67,"B+",IF('Grading Sheet'!D25&gt;63,"B",IF('Grading Sheet'!D25&gt;57,"C+",IF('Grading Sheet'!D25&gt;53,"C",IF('Grading Sheet'!D25&gt;47,"D+",IF('Grading Sheet'!D25&gt;43,"D",IF('Grading Sheet'!D25&gt;37,"F1","F2"))))))))))</f>
+        <v>C</v>
       </c>
       <c r="D54" s="99" t="str">
-        <f>IF('Grading Sheet'!D25&gt;90,"A+",IF('Grading Sheet'!D25&gt;85,"A",IF('Grading Sheet'!D25&gt;80,"B+",IF('Grading Sheet'!D25&gt;75,"B",IF('Grading Sheet'!D25&gt;70,"C+",IF('Grading Sheet'!D25&gt;65,"C",IF('Grading Sheet'!D25&gt;60,"D+",IF('Grading Sheet'!D25&gt;55,"D",IF('Grading Sheet'!D25&gt;50,"E+",IF('Grading Sheet'!D25&gt;45,"F+","F"))))))))))</f>
-        <v>D</v>
+        <f>IF('Grading Sheet'!D25&gt;95,"A+",IF('Grading Sheet'!D25&gt;85,"A",IF('Grading Sheet'!D25&gt;75,"A-",IF('Grading Sheet'!D25&gt;67,"B+",IF('Grading Sheet'!D25&gt;63,"B",IF('Grading Sheet'!D25&gt;57,"C+",IF('Grading Sheet'!D25&gt;53,"C",IF('Grading Sheet'!D25&gt;47,"D+",IF('Grading Sheet'!D25&gt;43,"D",IF('Grading Sheet'!D25&gt;37,"F1","F2"))))))))))</f>
+        <v>C</v>
       </c>
       <c r="E54" s="96"/>
       <c r="F54" s="3"/>
@@ -31742,7 +31748,7 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="96" customHeight="1">
-      <c r="A58" s="104" t="s">
+      <c r="A58" s="106" t="s">
         <v>88</v>
       </c>
       <c r="B58" s="95"/>
@@ -58549,7 +58555,7 @@
       </c>
       <c r="C12" s="5" t="str">
         <f>IF(B12&gt;=100,'Grading Sheet'!E18,IF(B12&gt;=90,'Grading Sheet'!F18,IF(B12&gt;=80,'Grading Sheet'!G18,IF(B12&gt;=70,'Grading Sheet'!H18,IF(B12&gt;=60,'Grading Sheet'!I18,IF(B12&gt;=50,'Grading Sheet'!J18,IF(B12&gt;=40,'Grading Sheet'!K18,IF(B12&gt;=30,'Grading Sheet'!L18,IF(B12&gt;=20,'Grading Sheet'!M18,IF(B12&gt;=10,'Grading Sheet'!N18,'Grading Sheet'!O18))))))))))</f>
-        <v>User Manual is good. Contains all varieties of forms. </v>
+        <v>User Manual is good. Contains all varieties of forms.</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1">
